--- a/output/xlsx/RF010 - Gerenciar Periodos Avaliativos--GTP-.xlsx
+++ b/output/xlsx/RF010 - Gerenciar Periodos Avaliativos--GTP-.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="352" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="342" uniqueCount="58">
   <si>
     <t xml:space="preserve">System: </t>
   </si>
@@ -32,7 +32,7 @@
     <t xml:space="preserve">Version: </t>
   </si>
   <si>
-    <t>0.1</t>
+    <t>1.0</t>
   </si>
   <si>
     <t>Suite Type:</t>
@@ -71,7 +71,7 @@
     <t xml:space="preserve">Precondition: </t>
   </si>
   <si>
-    <t>Lider de Pessoas esta autenticado no sistema e  tem permissao para gerenciar perfis de competencias.</t>
+    <t>Lider de Pessoas esta autenticado no sistema e  tem permissao para gerenciar Periodos Avaliativos.</t>
   </si>
   <si>
     <t>#</t>
@@ -92,10 +92,10 @@
     <t>Actual Result</t>
   </si>
   <si>
-    <t>Lider de Pessoas acessa a funcionalidade de gestao de perfis de competencias a partir do menu inicial</t>
-  </si>
-  <si>
-    <t>SYSTEM exibe a listagem dos perfis de competencias cadastrados com opcoes de 'Novo', 'Editar', 'Excluir' e 'Ajuda'</t>
+    <t>Lider de Pessoas acessa a funcionalidade de gestao de Periodos Avaliativos a partir do menu inicial</t>
+  </si>
+  <si>
+    <t>SYSTEM exibe a listagem dos Periodos Avaliativos cadastrados com opcoes de 'Novo', 'Editar', 'Excluir' e 'Ajuda'</t>
   </si>
   <si>
     <t>Lider de Pessoas seleciona um Periodo Avaliativo da listagem</t>
@@ -116,7 +116,7 @@
     <t>SYSTEM apresenta o campo 'Nome' preenchido corretamente</t>
   </si>
   <si>
-    <t>Lider de Pessoas preenche o campo 'Data Inicial e Data Final' selecionando um lider da lista</t>
+    <t>Lider de Pessoas preenche o campo 'Data Inicial e Data Final' informando as respectivas datas referente ao periodo</t>
   </si>
   <si>
     <t>SYSTEM apresenta o campo 'Data Inicial e Data Final' preenchido corretamente</t>
@@ -131,7 +131,7 @@
     <t xml:space="preserve">Postcondition: </t>
   </si>
   <si>
-    <t>A gestao de perfis de competencias e realizada com sucesso.</t>
+    <t>A gestao de Periodos Avaliativos e realizada com sucesso.</t>
   </si>
   <si>
     <t>TC2</t>
@@ -146,7 +146,7 @@
     <t>Lider de Pessoas nao confirma a exclusao do Periodo Avaliativo</t>
   </si>
   <si>
-    <t>SYSTEM exibe a listagem dos perfis de competencias com o Periodo Avaliativo excluido</t>
+    <t>SYSTEM exibe a listagem dos Periodos Avaliativos com o Periodo Avaliativo excluido</t>
   </si>
   <si>
     <t>TC3</t>
@@ -155,7 +155,7 @@
     <t>Lider de Pessoas confirma a exclusao do Periodo Avaliativo</t>
   </si>
   <si>
-    <t>SYSTEM exibe a listagem dos perfis de competencias sem o Periodo Avaliativo excluido</t>
+    <t>SYSTEM exibe a listagem dos Periodos Avaliativos sem o Periodo Avaliativo excluido</t>
   </si>
   <si>
     <t>TC4</t>
@@ -170,10 +170,10 @@
     <t>TC5</t>
   </si>
   <si>
-    <t>Usuario Nao-Autenticado acessa a funcionalidade de gestao de perfis de competencias a partir do menu inicial</t>
-  </si>
-  <si>
-    <t>SYSTEM exibe a listagem dos perfis de competencias cadastrados apenas para visualizacao com a opcao 'Ajuda'</t>
+    <t>Usuario Nao-Autenticado acessa a funcionalidade de gestao de Periodos Avaliativos a partir do menu inicial</t>
+  </si>
+  <si>
+    <t>SYSTEM exibe a listagem dos Periodos Avaliativos cadastrados apenas para visualizacao com a opcao 'Ajuda'</t>
   </si>
   <si>
     <t>TC6</t>
@@ -381,7 +381,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:F78"/>
+  <dimension ref="A1:F76"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true" showGridLines="false"/>
   </sheetViews>
@@ -1412,13 +1412,13 @@
         <v>3.0</v>
       </c>
       <c r="B63" t="s" s="7">
-        <v>30</v>
+        <v>41</v>
       </c>
       <c r="C63" t="s" s="6">
         <v>2</v>
       </c>
       <c r="D63" t="s" s="7">
-        <v>31</v>
+        <v>42</v>
       </c>
       <c r="E63" t="s" s="6">
         <v>2</v>
@@ -1432,13 +1432,13 @@
         <v>4.0</v>
       </c>
       <c r="B64" t="s" s="7">
-        <v>32</v>
+        <v>46</v>
       </c>
       <c r="C64" t="s" s="6">
         <v>2</v>
       </c>
       <c r="D64" t="s" s="7">
-        <v>33</v>
+        <v>55</v>
       </c>
       <c r="E64" t="s" s="6">
         <v>2</v>
@@ -1447,140 +1447,140 @@
         <v>2</v>
       </c>
     </row>
-    <row r="65">
-      <c r="A65" t="n" s="10">
-        <v>5.0</v>
-      </c>
-      <c r="B65" t="s" s="7">
-        <v>34</v>
-      </c>
-      <c r="C65" t="s" s="6">
-        <v>2</v>
-      </c>
-      <c r="D65" t="s" s="7">
-        <v>35</v>
-      </c>
-      <c r="E65" t="s" s="6">
-        <v>2</v>
-      </c>
-      <c r="F65" t="s" s="6">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="66">
-      <c r="A66" t="n" s="10">
-        <v>6.0</v>
-      </c>
-      <c r="B66" t="s" s="7">
-        <v>36</v>
-      </c>
-      <c r="C66" t="s" s="6">
-        <v>2</v>
-      </c>
-      <c r="D66" t="s" s="7">
-        <v>55</v>
-      </c>
-      <c r="E66" t="s" s="6">
-        <v>2</v>
-      </c>
-      <c r="F66" t="s" s="6">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="67"/>
-    <row r="68"/>
+    <row r="65"/>
+    <row r="66"/>
+    <row r="67">
+      <c r="A67" t="s" s="4">
+        <v>12</v>
+      </c>
+      <c r="B67" t="s" s="4">
+        <v>56</v>
+      </c>
+      <c r="C67" t="s" s="4">
+        <v>14</v>
+      </c>
+      <c r="D67" t="s" s="4">
+        <v>2</v>
+      </c>
+      <c r="E67" t="s" s="4">
+        <v>15</v>
+      </c>
+      <c r="F67" t="s" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="s" s="9">
+        <v>16</v>
+      </c>
+      <c r="B68" t="s" s="9">
+        <v>2</v>
+      </c>
+      <c r="C68" t="s" s="9">
+        <v>2</v>
+      </c>
+      <c r="D68" t="s" s="9">
+        <v>2</v>
+      </c>
+      <c r="E68" t="s" s="9">
+        <v>17</v>
+      </c>
+      <c r="F68" t="s" s="9">
+        <v>2</v>
+      </c>
+    </row>
     <row r="69">
-      <c r="A69" t="s" s="4">
-        <v>12</v>
-      </c>
-      <c r="B69" t="s" s="4">
-        <v>56</v>
-      </c>
-      <c r="C69" t="s" s="4">
-        <v>14</v>
-      </c>
-      <c r="D69" t="s" s="4">
-        <v>2</v>
-      </c>
-      <c r="E69" t="s" s="4">
-        <v>15</v>
-      </c>
-      <c r="F69" t="s" s="4">
+      <c r="A69" t="s" s="8">
+        <v>18</v>
+      </c>
+      <c r="B69" t="s" s="8">
+        <v>19</v>
+      </c>
+      <c r="C69" t="s" s="8">
+        <v>2</v>
+      </c>
+      <c r="D69" t="s" s="8">
+        <v>2</v>
+      </c>
+      <c r="E69" t="s" s="8">
+        <v>2</v>
+      </c>
+      <c r="F69" t="s" s="8">
         <v>2</v>
       </c>
     </row>
     <row r="70">
-      <c r="A70" t="s" s="9">
-        <v>16</v>
-      </c>
-      <c r="B70" t="s" s="9">
-        <v>2</v>
-      </c>
-      <c r="C70" t="s" s="9">
-        <v>2</v>
-      </c>
-      <c r="D70" t="s" s="9">
-        <v>2</v>
-      </c>
-      <c r="E70" t="s" s="9">
-        <v>17</v>
-      </c>
-      <c r="F70" t="s" s="9">
-        <v>2</v>
+      <c r="A70" t="s" s="5">
+        <v>20</v>
+      </c>
+      <c r="B70" t="s" s="5">
+        <v>21</v>
+      </c>
+      <c r="C70" t="s" s="5">
+        <v>22</v>
+      </c>
+      <c r="D70" t="s" s="5">
+        <v>23</v>
+      </c>
+      <c r="E70" t="s" s="5">
+        <v>24</v>
+      </c>
+      <c r="F70" t="s" s="5">
+        <v>25</v>
       </c>
     </row>
     <row r="71">
-      <c r="A71" t="s" s="8">
-        <v>18</v>
-      </c>
-      <c r="B71" t="s" s="8">
-        <v>19</v>
-      </c>
-      <c r="C71" t="s" s="8">
-        <v>2</v>
-      </c>
-      <c r="D71" t="s" s="8">
-        <v>2</v>
-      </c>
-      <c r="E71" t="s" s="8">
-        <v>2</v>
-      </c>
-      <c r="F71" t="s" s="8">
+      <c r="A71" t="n" s="10">
+        <v>1.0</v>
+      </c>
+      <c r="B71" t="s" s="7">
+        <v>26</v>
+      </c>
+      <c r="C71" t="s" s="6">
+        <v>2</v>
+      </c>
+      <c r="D71" t="s" s="7">
+        <v>27</v>
+      </c>
+      <c r="E71" t="s" s="6">
+        <v>2</v>
+      </c>
+      <c r="F71" t="s" s="6">
         <v>2</v>
       </c>
     </row>
     <row r="72">
-      <c r="A72" t="s" s="5">
-        <v>20</v>
-      </c>
-      <c r="B72" t="s" s="5">
-        <v>21</v>
-      </c>
-      <c r="C72" t="s" s="5">
-        <v>22</v>
-      </c>
-      <c r="D72" t="s" s="5">
-        <v>23</v>
-      </c>
-      <c r="E72" t="s" s="5">
-        <v>24</v>
-      </c>
-      <c r="F72" t="s" s="5">
-        <v>25</v>
+      <c r="A72" t="n" s="10">
+        <v>2.0</v>
+      </c>
+      <c r="B72" t="s" s="7">
+        <v>28</v>
+      </c>
+      <c r="C72" t="s" s="6">
+        <v>2</v>
+      </c>
+      <c r="D72" t="s" s="7">
+        <v>29</v>
+      </c>
+      <c r="E72" t="s" s="6">
+        <v>2</v>
+      </c>
+      <c r="F72" t="s" s="6">
+        <v>2</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="n" s="10">
-        <v>1.0</v>
+        <v>3.0</v>
       </c>
       <c r="B73" t="s" s="7">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="C73" t="s" s="6">
         <v>2</v>
       </c>
       <c r="D73" t="s" s="7">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="E73" t="s" s="6">
         <v>2</v>
@@ -1591,16 +1591,16 @@
     </row>
     <row r="74">
       <c r="A74" t="n" s="10">
-        <v>2.0</v>
+        <v>4.0</v>
       </c>
       <c r="B74" t="s" s="7">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="C74" t="s" s="6">
         <v>2</v>
       </c>
       <c r="D74" t="s" s="7">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="E74" t="s" s="6">
         <v>2</v>
@@ -1611,16 +1611,16 @@
     </row>
     <row r="75">
       <c r="A75" t="n" s="10">
-        <v>3.0</v>
+        <v>5.0</v>
       </c>
       <c r="B75" t="s" s="7">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="C75" t="s" s="6">
         <v>2</v>
       </c>
       <c r="D75" t="s" s="7">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="E75" t="s" s="6">
         <v>2</v>
@@ -1631,61 +1631,21 @@
     </row>
     <row r="76">
       <c r="A76" t="n" s="10">
-        <v>4.0</v>
+        <v>6.0</v>
       </c>
       <c r="B76" t="s" s="7">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="C76" t="s" s="6">
         <v>2</v>
       </c>
       <c r="D76" t="s" s="7">
-        <v>33</v>
+        <v>57</v>
       </c>
       <c r="E76" t="s" s="6">
         <v>2</v>
       </c>
       <c r="F76" t="s" s="6">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="77">
-      <c r="A77" t="n" s="10">
-        <v>5.0</v>
-      </c>
-      <c r="B77" t="s" s="7">
-        <v>34</v>
-      </c>
-      <c r="C77" t="s" s="6">
-        <v>2</v>
-      </c>
-      <c r="D77" t="s" s="7">
-        <v>35</v>
-      </c>
-      <c r="E77" t="s" s="6">
-        <v>2</v>
-      </c>
-      <c r="F77" t="s" s="6">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="78">
-      <c r="A78" t="n" s="10">
-        <v>6.0</v>
-      </c>
-      <c r="B78" t="s" s="7">
-        <v>36</v>
-      </c>
-      <c r="C78" t="s" s="6">
-        <v>2</v>
-      </c>
-      <c r="D78" t="s" s="7">
-        <v>57</v>
-      </c>
-      <c r="E78" t="s" s="6">
-        <v>2</v>
-      </c>
-      <c r="F78" t="s" s="6">
         <v>2</v>
       </c>
     </row>
@@ -1705,8 +1665,8 @@
     <mergeCell ref="B52:F52"/>
     <mergeCell ref="B58:D58"/>
     <mergeCell ref="B59:F59"/>
-    <mergeCell ref="B70:D70"/>
-    <mergeCell ref="B71:F71"/>
+    <mergeCell ref="B68:D68"/>
+    <mergeCell ref="B69:F69"/>
   </mergeCells>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>

--- a/output/xlsx/RF010 - Gerenciar Periodos Avaliativos--GTP-.xlsx
+++ b/output/xlsx/RF010 - Gerenciar Periodos Avaliativos--GTP-.xlsx
@@ -179,13 +179,13 @@
     <t>TC6</t>
   </si>
   <si>
+    <t>SYSTEM exibe uma mensagem de erro ao tentar editar o Periodo Avaliativo, informando o campo ou a validacao que falhou</t>
+  </si>
+  <si>
+    <t>TC7</t>
+  </si>
+  <si>
     <t>SYSTEM exibe uma mensagem de erro ao tentar excluir o Periodo Avaliativo</t>
-  </si>
-  <si>
-    <t>TC7</t>
-  </si>
-  <si>
-    <t>SYSTEM exibe uma mensagem de erro ao tentar editar o Periodo Avaliativo, informando o campo ou a validacao que falhou</t>
   </si>
 </sst>
 </file>
@@ -1412,13 +1412,13 @@
         <v>3.0</v>
       </c>
       <c r="B63" t="s" s="7">
-        <v>41</v>
+        <v>30</v>
       </c>
       <c r="C63" t="s" s="6">
         <v>2</v>
       </c>
       <c r="D63" t="s" s="7">
-        <v>42</v>
+        <v>31</v>
       </c>
       <c r="E63" t="s" s="6">
         <v>2</v>
@@ -1432,155 +1432,155 @@
         <v>4.0</v>
       </c>
       <c r="B64" t="s" s="7">
-        <v>46</v>
+        <v>32</v>
       </c>
       <c r="C64" t="s" s="6">
         <v>2</v>
       </c>
       <c r="D64" t="s" s="7">
+        <v>33</v>
+      </c>
+      <c r="E64" t="s" s="6">
+        <v>2</v>
+      </c>
+      <c r="F64" t="s" s="6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="n" s="10">
+        <v>5.0</v>
+      </c>
+      <c r="B65" t="s" s="7">
+        <v>34</v>
+      </c>
+      <c r="C65" t="s" s="6">
+        <v>2</v>
+      </c>
+      <c r="D65" t="s" s="7">
+        <v>35</v>
+      </c>
+      <c r="E65" t="s" s="6">
+        <v>2</v>
+      </c>
+      <c r="F65" t="s" s="6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="n" s="10">
+        <v>6.0</v>
+      </c>
+      <c r="B66" t="s" s="7">
+        <v>36</v>
+      </c>
+      <c r="C66" t="s" s="6">
+        <v>2</v>
+      </c>
+      <c r="D66" t="s" s="7">
         <v>55</v>
       </c>
-      <c r="E64" t="s" s="6">
-        <v>2</v>
-      </c>
-      <c r="F64" t="s" s="6">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="65"/>
-    <row r="66"/>
-    <row r="67">
-      <c r="A67" t="s" s="4">
+      <c r="E66" t="s" s="6">
+        <v>2</v>
+      </c>
+      <c r="F66" t="s" s="6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="67"/>
+    <row r="68"/>
+    <row r="69">
+      <c r="A69" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="B67" t="s" s="4">
+      <c r="B69" t="s" s="4">
         <v>56</v>
       </c>
-      <c r="C67" t="s" s="4">
+      <c r="C69" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="D67" t="s" s="4">
-        <v>2</v>
-      </c>
-      <c r="E67" t="s" s="4">
+      <c r="D69" t="s" s="4">
+        <v>2</v>
+      </c>
+      <c r="E69" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="F67" t="s" s="4">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="68">
-      <c r="A68" t="s" s="9">
+      <c r="F69" t="s" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="s" s="9">
         <v>16</v>
       </c>
-      <c r="B68" t="s" s="9">
-        <v>2</v>
-      </c>
-      <c r="C68" t="s" s="9">
-        <v>2</v>
-      </c>
-      <c r="D68" t="s" s="9">
-        <v>2</v>
-      </c>
-      <c r="E68" t="s" s="9">
+      <c r="B70" t="s" s="9">
+        <v>2</v>
+      </c>
+      <c r="C70" t="s" s="9">
+        <v>2</v>
+      </c>
+      <c r="D70" t="s" s="9">
+        <v>2</v>
+      </c>
+      <c r="E70" t="s" s="9">
         <v>17</v>
       </c>
-      <c r="F68" t="s" s="9">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="69">
-      <c r="A69" t="s" s="8">
+      <c r="F70" t="s" s="9">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="s" s="8">
         <v>18</v>
       </c>
-      <c r="B69" t="s" s="8">
+      <c r="B71" t="s" s="8">
         <v>19</v>
       </c>
-      <c r="C69" t="s" s="8">
-        <v>2</v>
-      </c>
-      <c r="D69" t="s" s="8">
-        <v>2</v>
-      </c>
-      <c r="E69" t="s" s="8">
-        <v>2</v>
-      </c>
-      <c r="F69" t="s" s="8">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="70">
-      <c r="A70" t="s" s="5">
+      <c r="C71" t="s" s="8">
+        <v>2</v>
+      </c>
+      <c r="D71" t="s" s="8">
+        <v>2</v>
+      </c>
+      <c r="E71" t="s" s="8">
+        <v>2</v>
+      </c>
+      <c r="F71" t="s" s="8">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="s" s="5">
         <v>20</v>
       </c>
-      <c r="B70" t="s" s="5">
+      <c r="B72" t="s" s="5">
         <v>21</v>
       </c>
-      <c r="C70" t="s" s="5">
+      <c r="C72" t="s" s="5">
         <v>22</v>
       </c>
-      <c r="D70" t="s" s="5">
+      <c r="D72" t="s" s="5">
         <v>23</v>
       </c>
-      <c r="E70" t="s" s="5">
+      <c r="E72" t="s" s="5">
         <v>24</v>
       </c>
-      <c r="F70" t="s" s="5">
+      <c r="F72" t="s" s="5">
         <v>25</v>
-      </c>
-    </row>
-    <row r="71">
-      <c r="A71" t="n" s="10">
-        <v>1.0</v>
-      </c>
-      <c r="B71" t="s" s="7">
-        <v>26</v>
-      </c>
-      <c r="C71" t="s" s="6">
-        <v>2</v>
-      </c>
-      <c r="D71" t="s" s="7">
-        <v>27</v>
-      </c>
-      <c r="E71" t="s" s="6">
-        <v>2</v>
-      </c>
-      <c r="F71" t="s" s="6">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="72">
-      <c r="A72" t="n" s="10">
-        <v>2.0</v>
-      </c>
-      <c r="B72" t="s" s="7">
-        <v>28</v>
-      </c>
-      <c r="C72" t="s" s="6">
-        <v>2</v>
-      </c>
-      <c r="D72" t="s" s="7">
-        <v>29</v>
-      </c>
-      <c r="E72" t="s" s="6">
-        <v>2</v>
-      </c>
-      <c r="F72" t="s" s="6">
-        <v>2</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="n" s="10">
-        <v>3.0</v>
+        <v>1.0</v>
       </c>
       <c r="B73" t="s" s="7">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="C73" t="s" s="6">
         <v>2</v>
       </c>
       <c r="D73" t="s" s="7">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="E73" t="s" s="6">
         <v>2</v>
@@ -1591,16 +1591,16 @@
     </row>
     <row r="74">
       <c r="A74" t="n" s="10">
-        <v>4.0</v>
+        <v>2.0</v>
       </c>
       <c r="B74" t="s" s="7">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="C74" t="s" s="6">
         <v>2</v>
       </c>
       <c r="D74" t="s" s="7">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="E74" t="s" s="6">
         <v>2</v>
@@ -1611,16 +1611,16 @@
     </row>
     <row r="75">
       <c r="A75" t="n" s="10">
-        <v>5.0</v>
+        <v>3.0</v>
       </c>
       <c r="B75" t="s" s="7">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="C75" t="s" s="6">
         <v>2</v>
       </c>
       <c r="D75" t="s" s="7">
-        <v>35</v>
+        <v>42</v>
       </c>
       <c r="E75" t="s" s="6">
         <v>2</v>
@@ -1631,10 +1631,10 @@
     </row>
     <row r="76">
       <c r="A76" t="n" s="10">
-        <v>6.0</v>
+        <v>4.0</v>
       </c>
       <c r="B76" t="s" s="7">
-        <v>36</v>
+        <v>46</v>
       </c>
       <c r="C76" t="s" s="6">
         <v>2</v>
@@ -1665,8 +1665,8 @@
     <mergeCell ref="B52:F52"/>
     <mergeCell ref="B58:D58"/>
     <mergeCell ref="B59:F59"/>
-    <mergeCell ref="B68:D68"/>
-    <mergeCell ref="B69:F69"/>
+    <mergeCell ref="B70:D70"/>
+    <mergeCell ref="B71:F71"/>
   </mergeCells>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>

--- a/output/xlsx/RF010 - Gerenciar Periodos Avaliativos--GTP-.xlsx
+++ b/output/xlsx/RF010 - Gerenciar Periodos Avaliativos--GTP-.xlsx
@@ -143,19 +143,19 @@
     <t>SYSTEM solicita confirmacao de exclusao mostrando o nome do Periodo Avaliativo</t>
   </si>
   <si>
+    <t>Lider de Pessoas confirma a exclusao do Periodo Avaliativo</t>
+  </si>
+  <si>
+    <t>SYSTEM exibe a listagem dos Periodos Avaliativos sem o Periodo Avaliativo excluido</t>
+  </si>
+  <si>
+    <t>TC3</t>
+  </si>
+  <si>
     <t>Lider de Pessoas nao confirma a exclusao do Periodo Avaliativo</t>
   </si>
   <si>
     <t>SYSTEM exibe a listagem dos Periodos Avaliativos com o Periodo Avaliativo excluido</t>
-  </si>
-  <si>
-    <t>TC3</t>
-  </si>
-  <si>
-    <t>Lider de Pessoas confirma a exclusao do Periodo Avaliativo</t>
-  </si>
-  <si>
-    <t>SYSTEM exibe a listagem dos Periodos Avaliativos sem o Periodo Avaliativo excluido</t>
   </si>
   <si>
     <t>TC4</t>
@@ -1634,7 +1634,7 @@
         <v>4.0</v>
       </c>
       <c r="B76" t="s" s="7">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="C76" t="s" s="6">
         <v>2</v>

--- a/output/xlsx/RF010 - Gerenciar Periodos Avaliativos--GTP-.xlsx
+++ b/output/xlsx/RF010 - Gerenciar Periodos Avaliativos--GTP-.xlsx
@@ -116,10 +116,10 @@
     <t>SYSTEM apresenta o campo 'Nome' preenchido corretamente</t>
   </si>
   <si>
-    <t>Lider de Pessoas preenche o campo 'Data Inicial e Data Final' informando as respectivas datas referente ao periodo</t>
-  </si>
-  <si>
-    <t>SYSTEM apresenta o campo 'Data Inicial e Data Final' preenchido corretamente</t>
+    <t>Lider de Pessoas preenche o campo 'Data Inicial' e 'Data Final' informando as respectivas datas referentes ao periodo</t>
+  </si>
+  <si>
+    <t>SYSTEM apresenta o campo 'Data Inicial' e 'Data Final' preenchido corretamente</t>
   </si>
   <si>
     <t>Lider de Pessoas clica na opcao 'Salvar'</t>
@@ -143,19 +143,19 @@
     <t>SYSTEM solicita confirmacao de exclusao mostrando o nome do Periodo Avaliativo</t>
   </si>
   <si>
+    <t>Lider de Pessoas nao confirma a exclusao do Periodo Avaliativo</t>
+  </si>
+  <si>
+    <t>SYSTEM exibe a listagem dos Periodos Avaliativos com o Periodo Avaliativo nao excluido</t>
+  </si>
+  <si>
+    <t>TC3</t>
+  </si>
+  <si>
     <t>Lider de Pessoas confirma a exclusao do Periodo Avaliativo</t>
   </si>
   <si>
     <t>SYSTEM exibe a listagem dos Periodos Avaliativos sem o Periodo Avaliativo excluido</t>
-  </si>
-  <si>
-    <t>TC3</t>
-  </si>
-  <si>
-    <t>Lider de Pessoas nao confirma a exclusao do Periodo Avaliativo</t>
-  </si>
-  <si>
-    <t>SYSTEM exibe a listagem dos Periodos Avaliativos com o Periodo Avaliativo excluido</t>
   </si>
   <si>
     <t>TC4</t>
@@ -1634,7 +1634,7 @@
         <v>4.0</v>
       </c>
       <c r="B76" t="s" s="7">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="C76" t="s" s="6">
         <v>2</v>

--- a/output/xlsx/RF010 - Gerenciar Periodos Avaliativos--GTP-.xlsx
+++ b/output/xlsx/RF010 - Gerenciar Periodos Avaliativos--GTP-.xlsx
@@ -143,21 +143,21 @@
     <t>SYSTEM solicita confirmacao de exclusao mostrando o nome do Periodo Avaliativo</t>
   </si>
   <si>
+    <t>Lider de Pessoas confirma a exclusao do Periodo Avaliativo</t>
+  </si>
+  <si>
+    <t>SYSTEM exibe a listagem dos Periodos Avaliativos sem o Periodo Avaliativo excluido</t>
+  </si>
+  <si>
+    <t>TC3</t>
+  </si>
+  <si>
     <t>Lider de Pessoas nao confirma a exclusao do Periodo Avaliativo</t>
   </si>
   <si>
     <t>SYSTEM exibe a listagem dos Periodos Avaliativos com o Periodo Avaliativo nao excluido</t>
   </si>
   <si>
-    <t>TC3</t>
-  </si>
-  <si>
-    <t>Lider de Pessoas confirma a exclusao do Periodo Avaliativo</t>
-  </si>
-  <si>
-    <t>SYSTEM exibe a listagem dos Periodos Avaliativos sem o Periodo Avaliativo excluido</t>
-  </si>
-  <si>
     <t>TC4</t>
   </si>
   <si>
@@ -179,13 +179,13 @@
     <t>TC6</t>
   </si>
   <si>
+    <t>SYSTEM exibe uma mensagem de erro ao tentar excluir o Periodo Avaliativo</t>
+  </si>
+  <si>
+    <t>TC7</t>
+  </si>
+  <si>
     <t>SYSTEM exibe uma mensagem de erro ao tentar editar o Periodo Avaliativo, informando o campo ou a validacao que falhou</t>
-  </si>
-  <si>
-    <t>TC7</t>
-  </si>
-  <si>
-    <t>SYSTEM exibe uma mensagem de erro ao tentar excluir o Periodo Avaliativo</t>
   </si>
 </sst>
 </file>
@@ -1412,13 +1412,13 @@
         <v>3.0</v>
       </c>
       <c r="B63" t="s" s="7">
-        <v>30</v>
+        <v>41</v>
       </c>
       <c r="C63" t="s" s="6">
         <v>2</v>
       </c>
       <c r="D63" t="s" s="7">
-        <v>31</v>
+        <v>42</v>
       </c>
       <c r="E63" t="s" s="6">
         <v>2</v>
@@ -1432,13 +1432,13 @@
         <v>4.0</v>
       </c>
       <c r="B64" t="s" s="7">
-        <v>32</v>
+        <v>43</v>
       </c>
       <c r="C64" t="s" s="6">
         <v>2</v>
       </c>
       <c r="D64" t="s" s="7">
-        <v>33</v>
+        <v>55</v>
       </c>
       <c r="E64" t="s" s="6">
         <v>2</v>
@@ -1447,140 +1447,140 @@
         <v>2</v>
       </c>
     </row>
-    <row r="65">
-      <c r="A65" t="n" s="10">
-        <v>5.0</v>
-      </c>
-      <c r="B65" t="s" s="7">
-        <v>34</v>
-      </c>
-      <c r="C65" t="s" s="6">
-        <v>2</v>
-      </c>
-      <c r="D65" t="s" s="7">
-        <v>35</v>
-      </c>
-      <c r="E65" t="s" s="6">
-        <v>2</v>
-      </c>
-      <c r="F65" t="s" s="6">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="66">
-      <c r="A66" t="n" s="10">
-        <v>6.0</v>
-      </c>
-      <c r="B66" t="s" s="7">
-        <v>36</v>
-      </c>
-      <c r="C66" t="s" s="6">
-        <v>2</v>
-      </c>
-      <c r="D66" t="s" s="7">
-        <v>55</v>
-      </c>
-      <c r="E66" t="s" s="6">
-        <v>2</v>
-      </c>
-      <c r="F66" t="s" s="6">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="67"/>
-    <row r="68"/>
+    <row r="65"/>
+    <row r="66"/>
+    <row r="67">
+      <c r="A67" t="s" s="4">
+        <v>12</v>
+      </c>
+      <c r="B67" t="s" s="4">
+        <v>56</v>
+      </c>
+      <c r="C67" t="s" s="4">
+        <v>14</v>
+      </c>
+      <c r="D67" t="s" s="4">
+        <v>2</v>
+      </c>
+      <c r="E67" t="s" s="4">
+        <v>15</v>
+      </c>
+      <c r="F67" t="s" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="s" s="9">
+        <v>16</v>
+      </c>
+      <c r="B68" t="s" s="9">
+        <v>2</v>
+      </c>
+      <c r="C68" t="s" s="9">
+        <v>2</v>
+      </c>
+      <c r="D68" t="s" s="9">
+        <v>2</v>
+      </c>
+      <c r="E68" t="s" s="9">
+        <v>17</v>
+      </c>
+      <c r="F68" t="s" s="9">
+        <v>2</v>
+      </c>
+    </row>
     <row r="69">
-      <c r="A69" t="s" s="4">
-        <v>12</v>
-      </c>
-      <c r="B69" t="s" s="4">
-        <v>56</v>
-      </c>
-      <c r="C69" t="s" s="4">
-        <v>14</v>
-      </c>
-      <c r="D69" t="s" s="4">
-        <v>2</v>
-      </c>
-      <c r="E69" t="s" s="4">
-        <v>15</v>
-      </c>
-      <c r="F69" t="s" s="4">
+      <c r="A69" t="s" s="8">
+        <v>18</v>
+      </c>
+      <c r="B69" t="s" s="8">
+        <v>19</v>
+      </c>
+      <c r="C69" t="s" s="8">
+        <v>2</v>
+      </c>
+      <c r="D69" t="s" s="8">
+        <v>2</v>
+      </c>
+      <c r="E69" t="s" s="8">
+        <v>2</v>
+      </c>
+      <c r="F69" t="s" s="8">
         <v>2</v>
       </c>
     </row>
     <row r="70">
-      <c r="A70" t="s" s="9">
-        <v>16</v>
-      </c>
-      <c r="B70" t="s" s="9">
-        <v>2</v>
-      </c>
-      <c r="C70" t="s" s="9">
-        <v>2</v>
-      </c>
-      <c r="D70" t="s" s="9">
-        <v>2</v>
-      </c>
-      <c r="E70" t="s" s="9">
-        <v>17</v>
-      </c>
-      <c r="F70" t="s" s="9">
-        <v>2</v>
+      <c r="A70" t="s" s="5">
+        <v>20</v>
+      </c>
+      <c r="B70" t="s" s="5">
+        <v>21</v>
+      </c>
+      <c r="C70" t="s" s="5">
+        <v>22</v>
+      </c>
+      <c r="D70" t="s" s="5">
+        <v>23</v>
+      </c>
+      <c r="E70" t="s" s="5">
+        <v>24</v>
+      </c>
+      <c r="F70" t="s" s="5">
+        <v>25</v>
       </c>
     </row>
     <row r="71">
-      <c r="A71" t="s" s="8">
-        <v>18</v>
-      </c>
-      <c r="B71" t="s" s="8">
-        <v>19</v>
-      </c>
-      <c r="C71" t="s" s="8">
-        <v>2</v>
-      </c>
-      <c r="D71" t="s" s="8">
-        <v>2</v>
-      </c>
-      <c r="E71" t="s" s="8">
-        <v>2</v>
-      </c>
-      <c r="F71" t="s" s="8">
+      <c r="A71" t="n" s="10">
+        <v>1.0</v>
+      </c>
+      <c r="B71" t="s" s="7">
+        <v>26</v>
+      </c>
+      <c r="C71" t="s" s="6">
+        <v>2</v>
+      </c>
+      <c r="D71" t="s" s="7">
+        <v>27</v>
+      </c>
+      <c r="E71" t="s" s="6">
+        <v>2</v>
+      </c>
+      <c r="F71" t="s" s="6">
         <v>2</v>
       </c>
     </row>
     <row r="72">
-      <c r="A72" t="s" s="5">
-        <v>20</v>
-      </c>
-      <c r="B72" t="s" s="5">
-        <v>21</v>
-      </c>
-      <c r="C72" t="s" s="5">
-        <v>22</v>
-      </c>
-      <c r="D72" t="s" s="5">
-        <v>23</v>
-      </c>
-      <c r="E72" t="s" s="5">
-        <v>24</v>
-      </c>
-      <c r="F72" t="s" s="5">
-        <v>25</v>
+      <c r="A72" t="n" s="10">
+        <v>2.0</v>
+      </c>
+      <c r="B72" t="s" s="7">
+        <v>28</v>
+      </c>
+      <c r="C72" t="s" s="6">
+        <v>2</v>
+      </c>
+      <c r="D72" t="s" s="7">
+        <v>29</v>
+      </c>
+      <c r="E72" t="s" s="6">
+        <v>2</v>
+      </c>
+      <c r="F72" t="s" s="6">
+        <v>2</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="n" s="10">
-        <v>1.0</v>
+        <v>3.0</v>
       </c>
       <c r="B73" t="s" s="7">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="C73" t="s" s="6">
         <v>2</v>
       </c>
       <c r="D73" t="s" s="7">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="E73" t="s" s="6">
         <v>2</v>
@@ -1591,16 +1591,16 @@
     </row>
     <row r="74">
       <c r="A74" t="n" s="10">
-        <v>2.0</v>
+        <v>4.0</v>
       </c>
       <c r="B74" t="s" s="7">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="C74" t="s" s="6">
         <v>2</v>
       </c>
       <c r="D74" t="s" s="7">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="E74" t="s" s="6">
         <v>2</v>
@@ -1611,16 +1611,16 @@
     </row>
     <row r="75">
       <c r="A75" t="n" s="10">
-        <v>3.0</v>
+        <v>5.0</v>
       </c>
       <c r="B75" t="s" s="7">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="C75" t="s" s="6">
         <v>2</v>
       </c>
       <c r="D75" t="s" s="7">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="E75" t="s" s="6">
         <v>2</v>
@@ -1631,10 +1631,10 @@
     </row>
     <row r="76">
       <c r="A76" t="n" s="10">
-        <v>4.0</v>
+        <v>6.0</v>
       </c>
       <c r="B76" t="s" s="7">
-        <v>46</v>
+        <v>36</v>
       </c>
       <c r="C76" t="s" s="6">
         <v>2</v>
@@ -1665,8 +1665,8 @@
     <mergeCell ref="B52:F52"/>
     <mergeCell ref="B58:D58"/>
     <mergeCell ref="B59:F59"/>
-    <mergeCell ref="B70:D70"/>
-    <mergeCell ref="B71:F71"/>
+    <mergeCell ref="B68:D68"/>
+    <mergeCell ref="B69:F69"/>
   </mergeCells>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
